--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
@@ -5055,28 +5055,28 @@
         <v>68</v>
       </c>
       <c r="B59">
-        <v>286032</v>
+        <v>286021</v>
       </c>
       <c r="C59">
         <v>2031</v>
       </c>
       <c r="D59">
-        <v>19364</v>
+        <v>19623</v>
       </c>
       <c r="E59">
-        <v>40751</v>
+        <v>41505</v>
       </c>
       <c r="F59">
-        <v>29666</v>
+        <v>29600</v>
       </c>
       <c r="G59">
-        <v>43184</v>
+        <v>42614</v>
       </c>
       <c r="H59">
-        <v>32952</v>
+        <v>32794</v>
       </c>
       <c r="I59">
-        <v>118083</v>
+        <v>117854</v>
       </c>
       <c r="J59">
         <v>59032</v>
@@ -5103,28 +5103,28 @@
         <v>27915</v>
       </c>
       <c r="R59">
-        <v>227000</v>
+        <v>226989</v>
       </c>
       <c r="S59">
         <v>1546</v>
       </c>
       <c r="T59">
-        <v>14698</v>
+        <v>14957</v>
       </c>
       <c r="U59">
-        <v>32144</v>
+        <v>32898</v>
       </c>
       <c r="V59">
-        <v>25516</v>
+        <v>25450</v>
       </c>
       <c r="W59">
-        <v>36295</v>
+        <v>35726</v>
       </c>
       <c r="X59">
-        <v>26631</v>
+        <v>26472</v>
       </c>
       <c r="Y59">
-        <v>90169</v>
+        <v>89939</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
@@ -5055,7 +5055,7 @@
         <v>68</v>
       </c>
       <c r="B59">
-        <v>286021</v>
+        <v>286057</v>
       </c>
       <c r="C59">
         <v>2031</v>
@@ -5064,22 +5064,22 @@
         <v>19623</v>
       </c>
       <c r="E59">
-        <v>41505</v>
+        <v>41735</v>
       </c>
       <c r="F59">
-        <v>29600</v>
+        <v>30558</v>
       </c>
       <c r="G59">
-        <v>42614</v>
+        <v>41906</v>
       </c>
       <c r="H59">
-        <v>32794</v>
+        <v>32644</v>
       </c>
       <c r="I59">
-        <v>117854</v>
+        <v>117559</v>
       </c>
       <c r="J59">
-        <v>59032</v>
+        <v>59078</v>
       </c>
       <c r="K59">
         <v>484</v>
@@ -5097,13 +5097,13 @@
         <v>6888</v>
       </c>
       <c r="P59">
-        <v>6321</v>
+        <v>6351</v>
       </c>
       <c r="Q59">
-        <v>27915</v>
+        <v>27930</v>
       </c>
       <c r="R59">
-        <v>226989</v>
+        <v>226979</v>
       </c>
       <c r="S59">
         <v>1546</v>
@@ -5112,19 +5112,19 @@
         <v>14957</v>
       </c>
       <c r="U59">
-        <v>32898</v>
+        <v>33128</v>
       </c>
       <c r="V59">
-        <v>25450</v>
+        <v>26408</v>
       </c>
       <c r="W59">
-        <v>35726</v>
+        <v>35018</v>
       </c>
       <c r="X59">
-        <v>26472</v>
+        <v>26293</v>
       </c>
       <c r="Y59">
-        <v>89939</v>
+        <v>89629</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Serie</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5127,6 +5130,17 @@
         <v>89629</v>
       </c>
     </row>
+    <row r="60" spans="1:25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>293229</v>
+      </c>
+      <c r="J60">
+        <v>59801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Trimestral.xlsx
@@ -5058,7 +5058,7 @@
         <v>68</v>
       </c>
       <c r="B59">
-        <v>286057</v>
+        <v>286162</v>
       </c>
       <c r="C59">
         <v>2031</v>
@@ -5070,19 +5070,19 @@
         <v>41735</v>
       </c>
       <c r="F59">
-        <v>30558</v>
+        <v>31178</v>
       </c>
       <c r="G59">
-        <v>41906</v>
+        <v>41690</v>
       </c>
       <c r="H59">
-        <v>32644</v>
+        <v>32467</v>
       </c>
       <c r="I59">
-        <v>117559</v>
+        <v>117437</v>
       </c>
       <c r="J59">
-        <v>59078</v>
+        <v>59118</v>
       </c>
       <c r="K59">
         <v>484</v>
@@ -5103,10 +5103,10 @@
         <v>6351</v>
       </c>
       <c r="Q59">
-        <v>27930</v>
+        <v>27970</v>
       </c>
       <c r="R59">
-        <v>226979</v>
+        <v>227044</v>
       </c>
       <c r="S59">
         <v>1546</v>
@@ -5115,19 +5115,19 @@
         <v>14957</v>
       </c>
       <c r="U59">
-        <v>33128</v>
+        <v>33129</v>
       </c>
       <c r="V59">
-        <v>26408</v>
+        <v>27027</v>
       </c>
       <c r="W59">
-        <v>35018</v>
+        <v>34802</v>
       </c>
       <c r="X59">
-        <v>26293</v>
+        <v>26116</v>
       </c>
       <c r="Y59">
-        <v>89629</v>
+        <v>89466</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5135,10 +5135,76 @@
         <v>69</v>
       </c>
       <c r="B60">
-        <v>293229</v>
+        <v>293223</v>
+      </c>
+      <c r="C60">
+        <v>2720</v>
+      </c>
+      <c r="D60">
+        <v>21173</v>
+      </c>
+      <c r="E60">
+        <v>43099</v>
+      </c>
+      <c r="F60">
+        <v>28518</v>
+      </c>
+      <c r="G60">
+        <v>41394</v>
+      </c>
+      <c r="H60">
+        <v>36203</v>
+      </c>
+      <c r="I60">
+        <v>120116</v>
       </c>
       <c r="J60">
         <v>59801</v>
+      </c>
+      <c r="K60">
+        <v>393</v>
+      </c>
+      <c r="L60">
+        <v>5364</v>
+      </c>
+      <c r="M60">
+        <v>8867</v>
+      </c>
+      <c r="N60">
+        <v>4452</v>
+      </c>
+      <c r="O60">
+        <v>6063</v>
+      </c>
+      <c r="P60">
+        <v>7688</v>
+      </c>
+      <c r="Q60">
+        <v>26975</v>
+      </c>
+      <c r="R60">
+        <v>233422</v>
+      </c>
+      <c r="S60">
+        <v>2327</v>
+      </c>
+      <c r="T60">
+        <v>15809</v>
+      </c>
+      <c r="U60">
+        <v>34231</v>
+      </c>
+      <c r="V60">
+        <v>24066</v>
+      </c>
+      <c r="W60">
+        <v>35331</v>
+      </c>
+      <c r="X60">
+        <v>28515</v>
+      </c>
+      <c r="Y60">
+        <v>93141</v>
       </c>
     </row>
   </sheetData>
